--- a/it_api/wwwroot/report/excel/LuongBaohiem.xlsx
+++ b/it_api/wwwroot/report/excel/LuongBaohiem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107EEDF3-9642-4FF0-9511-4336C49E41A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C513F67-6D1D-4C97-8331-C47F7AF24E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng" sheetId="18" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="57">
   <si>
     <t>STT</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>Tổng lương CB thực tế</t>
+  </si>
+  <si>
+    <t>BẢNG LƯƠNG KINH DOANH</t>
+  </si>
+  <si>
+    <t>BẢNG LƯƠNG CƠ BẢN</t>
   </si>
 </sst>
 </file>
@@ -428,7 +434,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,6 +468,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,7 +614,7 @@
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -816,12 +828,98 @@
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -834,12 +932,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,74 +941,20 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -2398,11 +2436,11 @@
   </sheetPr>
   <dimension ref="A1:AM29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="10" topLeftCell="P11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
+      <selection pane="bottomRight" activeCell="AI21" sqref="AI21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2437,13 +2475,14 @@
     <col min="28" max="28" width="14.5703125" style="3" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="19.85546875" style="3" customWidth="1"/>
     <col min="30" max="30" width="14.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="12.42578125" style="3" customWidth="1"/>
+    <col min="31" max="31" width="15.28515625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="12.42578125" style="3" customWidth="1"/>
     <col min="33" max="33" width="12.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="17.7109375" style="3" customWidth="1"/>
-    <col min="35" max="35" width="16.85546875" style="3" customWidth="1"/>
-    <col min="36" max="36" width="13.85546875" style="3" customWidth="1"/>
-    <col min="37" max="37" width="7.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="18.140625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="17.7109375" style="3" customWidth="1"/>
+    <col min="36" max="36" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9" style="3" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="25.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="40.7109375" style="6" customWidth="1"/>
     <col min="40" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -2502,17 +2541,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="96" t="s">
+      <c r="P5" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="96"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="96"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="130"/>
+      <c r="T5" s="130"/>
+      <c r="U5" s="130"/>
+      <c r="V5" s="130"/>
+      <c r="W5" s="130"/>
+      <c r="X5" s="130"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -2541,17 +2580,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="97" t="s">
+      <c r="P6" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="97"/>
-      <c r="W6" s="97"/>
-      <c r="X6" s="97"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
+      <c r="V6" s="131"/>
+      <c r="W6" s="131"/>
+      <c r="X6" s="131"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -2574,8 +2613,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2605,110 +2644,110 @@
     </row>
     <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="100" t="s">
+      <c r="A9" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="104" t="s">
+      <c r="F9" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="107" t="s">
+      <c r="G9" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="99" t="s">
+      <c r="H9" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="104" t="s">
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="108" t="s">
+      <c r="R9" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="104" t="s">
+      <c r="S9" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="124" t="s">
+      <c r="T9" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="108" t="s">
+      <c r="U9" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="107" t="s">
+      <c r="V9" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="114" t="s">
+      <c r="W9" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="115"/>
-      <c r="Y9" s="104" t="s">
+      <c r="X9" s="123"/>
+      <c r="Y9" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="99" t="s">
+      <c r="Z9" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="99"/>
-      <c r="AB9" s="99"/>
-      <c r="AC9" s="126" t="s">
+      <c r="AA9" s="115"/>
+      <c r="AB9" s="115"/>
+      <c r="AC9" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="104" t="s">
+      <c r="AD9" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="111" t="s">
+      <c r="AE9" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="111" t="s">
+      <c r="AF9" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="111" t="s">
+      <c r="AG9" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="100" t="s">
+      <c r="AH9" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="117" t="s">
+      <c r="AI9" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="104" t="s">
+      <c r="AJ9" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="119" t="s">
+      <c r="AK9" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="122" t="s">
+      <c r="AL9" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="113" t="s">
+      <c r="AM9" s="121" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="100"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="104"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="110"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -2736,19 +2775,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="125"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="104"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="137"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="137"/>
+      <c r="V10" s="110"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="106"/>
+      <c r="Y10" s="112"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -2758,24 +2797,24 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="126"/>
-      <c r="AD10" s="106"/>
-      <c r="AE10" s="112"/>
-      <c r="AF10" s="116"/>
-      <c r="AG10" s="112"/>
-      <c r="AH10" s="106"/>
-      <c r="AI10" s="118"/>
-      <c r="AJ10" s="105"/>
-      <c r="AK10" s="119"/>
-      <c r="AL10" s="123"/>
-      <c r="AM10" s="113"/>
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="112"/>
+      <c r="AE10" s="120"/>
+      <c r="AF10" s="124"/>
+      <c r="AG10" s="120"/>
+      <c r="AH10" s="112"/>
+      <c r="AI10" s="127"/>
+      <c r="AJ10" s="111"/>
+      <c r="AK10" s="128"/>
+      <c r="AL10" s="109"/>
+      <c r="AM10" s="121"/>
     </row>
     <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -2784,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="38">
-        <f t="shared" ref="H11:AJ11" si="0">SUMIF($E12:$E13,$A11,H12:H13)</f>
+        <f t="shared" ref="H11:AL11" si="0">SUMIF($E12:$E13,$A11,H12:H13)</f>
         <v>0</v>
       </c>
       <c r="I11" s="38">
@@ -2900,11 +2939,11 @@
         <v>0</v>
       </c>
       <c r="AK11" s="38">
-        <f t="shared" ref="AK11:AL11" si="1">SUMIF($E12:$E13,$A11,AK12:AK13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AL11" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AM11" s="35"/>
@@ -2989,12 +3028,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ12" s="34" t="e">
-        <f>IF(AND(AH12&gt;AI12,AI12&gt;0),AH12-AI12,0)</f>
+        <f>IF(AH12&gt;AI12,AH12-AI12,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK12" s="29"/>
       <c r="AL12" s="34" t="e">
-        <f t="shared" ref="AL12:AL13" si="2">+IF(AE12&gt;0,1,0)</f>
+        <f t="shared" ref="AL12:AL13" si="1">+IF(AE12&gt;0,1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM12" s="61"/>
@@ -3079,13 +3118,13 @@
         <f>AH13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ13" s="74" t="e">
-        <f>IF(AND(AH13&gt;AI13,AI13&gt;0),AH13-AI13,0)</f>
+      <c r="AJ13" s="34" t="e">
+        <f>IF(AH13&gt;AI13,AH13-AI13,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK13" s="69"/>
       <c r="AL13" s="74" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM13" s="75"/>
@@ -3139,127 +3178,127 @@
         <v>0</v>
       </c>
       <c r="H15" s="39">
-        <f t="shared" ref="H15:AL15" si="3">SUMIF($E11:$E14,"",H11:H14)</f>
+        <f t="shared" ref="H15:AL15" si="2">SUMIF($E11:$E14,"",H11:H14)</f>
         <v>0</v>
       </c>
       <c r="I15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U15" s="39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y15" s="39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD15" s="39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE15" s="39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH15" s="39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI15" s="39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ15" s="39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL15" s="39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM15" s="88"/>
@@ -3344,24 +3383,24 @@
     </row>
     <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="120" t="s">
+      <c r="F18" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="120"/>
+      <c r="G18" s="106"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="R18" s="121" t="s">
+      <c r="R18" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="121"/>
-      <c r="T18" s="121"/>
-      <c r="U18" s="121"/>
-      <c r="W18" s="121" t="s">
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="W18" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="121"/>
+      <c r="X18" s="107"/>
+      <c r="Y18" s="107"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
       <c r="AE18" s="51"/>
@@ -3376,24 +3415,24 @@
       <c r="AM18" s="52"/>
     </row>
     <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="95" t="s">
+      <c r="F19" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="95"/>
+      <c r="G19" s="129"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="R19" s="95" t="s">
+      <c r="R19" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="W19" s="95" t="s">
+      <c r="S19" s="129"/>
+      <c r="T19" s="129"/>
+      <c r="U19" s="129"/>
+      <c r="W19" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
+      <c r="X19" s="129"/>
+      <c r="Y19" s="129"/>
       <c r="AC19" s="44"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
@@ -3615,28 +3654,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AK9:AK10"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="P5:X5"/>
     <mergeCell ref="P6:X6"/>
@@ -3653,6 +3670,28 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="W19:Y19"/>
     <mergeCell ref="U9:U10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="AC9:AC10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
@@ -3668,13 +3707,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA328694-02BD-4BAC-A76D-F3A5CDAC8619}">
-  <dimension ref="A1:AE29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AA21" sqref="AA21"/>
+      <selection pane="bottomRight" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3704,8 +3743,8 @@
     <col min="23" max="23" width="12.42578125" style="3" customWidth="1"/>
     <col min="24" max="24" width="11.28515625" style="3" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="17.7109375" style="3" customWidth="1"/>
-    <col min="26" max="26" width="16.85546875" style="3" customWidth="1"/>
-    <col min="27" max="27" width="13.85546875" style="3" customWidth="1"/>
+    <col min="26" max="26" width="16.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="7.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="40.7109375" style="6" customWidth="1"/>
@@ -3763,14 +3802,14 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="96" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="96"/>
-      <c r="U5" s="96"/>
+      <c r="P5" s="130" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="130"/>
+      <c r="T5" s="130"/>
+      <c r="U5" s="130"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
@@ -3793,14 +3832,14 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="97" t="s">
+      <c r="P6" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
@@ -3817,8 +3856,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -3925,89 +3964,89 @@
       </c>
     </row>
     <row r="9" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="100" t="s">
+      <c r="A9" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="104" t="s">
+      <c r="F9" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="107" t="s">
+      <c r="G9" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="99" t="s">
+      <c r="H9" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="108" t="s">
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="R9" s="104" t="s">
+      <c r="R9" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="124" t="s">
+      <c r="S9" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="T9" s="108" t="s">
+      <c r="T9" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="U9" s="107" t="s">
+      <c r="U9" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="V9" s="126" t="s">
+      <c r="V9" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="W9" s="111" t="s">
+      <c r="W9" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="X9" s="111" t="s">
+      <c r="X9" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="Y9" s="100" t="s">
+      <c r="Y9" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="Z9" s="117" t="s">
+      <c r="Z9" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="AA9" s="104" t="s">
+      <c r="AA9" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="AB9" s="119" t="s">
+      <c r="AB9" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="AC9" s="122" t="s">
+      <c r="AC9" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="AD9" s="113" t="s">
+      <c r="AD9" s="121" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="100"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="104"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="110"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -4035,27 +4074,27 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="126"/>
-      <c r="W10" s="116"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="118"/>
-      <c r="AA10" s="105"/>
-      <c r="AB10" s="119"/>
-      <c r="AC10" s="123"/>
-      <c r="AD10" s="113"/>
+      <c r="Q10" s="137"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="110"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="120"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="111"/>
+      <c r="AB10" s="128"/>
+      <c r="AC10" s="109"/>
+      <c r="AD10" s="121"/>
     </row>
     <row r="11" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -4205,7 +4244,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AA12" s="34" t="e">
-        <f>IF(AND(Y12&gt;Z12,Z12&gt;0),Y12-Z12,0)</f>
+        <f>IF(Y12&gt;Z12,Y12-Z12,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB12" s="29"/>
@@ -4266,8 +4305,8 @@
         <f>Y13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA13" s="74" t="e">
-        <f>IF(AND(Y13&gt;Z13,Z13&gt;0),Y13-Z13,0)</f>
+      <c r="AA13" s="34" t="e">
+        <f>IF(Y13&gt;Z13,Y13-Z13,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB13" s="69"/>
@@ -4469,19 +4508,19 @@
     </row>
     <row r="18" spans="1:30" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="120" t="s">
+      <c r="F18" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="120"/>
+      <c r="G18" s="106"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="Q18" s="121" t="s">
+      <c r="Q18" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="R18" s="121"/>
-      <c r="S18" s="121"/>
-      <c r="T18" s="121"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
       <c r="W18" s="51"/>
       <c r="X18" s="51"/>
       <c r="Y18" s="92" t="s">
@@ -4493,19 +4532,19 @@
       <c r="AD18" s="52"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="95" t="s">
+      <c r="F19" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="95"/>
+      <c r="G19" s="129"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="Q19" s="95" t="s">
+      <c r="Q19" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="129"/>
+      <c r="T19" s="129"/>
       <c r="V19" s="44"/>
       <c r="W19" s="42"/>
       <c r="X19" s="42"/>
@@ -4683,24 +4722,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="V9:V10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="Q18:T18"/>
@@ -4713,6 +4734,24 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4720,13 +4759,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2869D28-C25B-4682-A245-A30235CB1DBC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomRight" activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4741,16 +4783,16 @@
     <col min="8" max="8" width="8.5703125" style="3" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" style="3" customWidth="1"/>
     <col min="18" max="18" width="17.7109375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="7.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="40.7109375" style="6" customWidth="1"/>
@@ -4784,18 +4826,20 @@
     </row>
     <row r="5" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="D5" s="130" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -4805,18 +4849,18 @@
     </row>
     <row r="6" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
@@ -4845,86 +4889,156 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>1</v>
+      </c>
+      <c r="B8" s="19">
+        <v>2</v>
+      </c>
+      <c r="C8" s="19">
+        <v>3</v>
+      </c>
+      <c r="D8" s="19">
+        <v>4</v>
+      </c>
+      <c r="E8" s="19">
+        <v>5</v>
+      </c>
+      <c r="F8" s="19">
+        <v>6</v>
+      </c>
+      <c r="G8" s="19">
+        <v>7</v>
+      </c>
+      <c r="H8" s="19">
+        <v>8</v>
+      </c>
+      <c r="I8" s="19">
+        <v>9</v>
+      </c>
+      <c r="J8" s="19">
+        <v>10</v>
+      </c>
+      <c r="K8" s="19">
+        <v>11</v>
+      </c>
+      <c r="L8" s="19">
+        <v>12</v>
+      </c>
+      <c r="M8" s="19">
+        <v>13</v>
+      </c>
+      <c r="N8" s="19">
+        <v>14</v>
+      </c>
+      <c r="O8" s="19">
+        <v>15</v>
+      </c>
+      <c r="P8" s="19">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>17</v>
+      </c>
+      <c r="R8" s="19">
+        <v>18</v>
+      </c>
+      <c r="S8" s="19">
+        <v>19</v>
+      </c>
+      <c r="T8" s="19">
+        <v>20</v>
+      </c>
+      <c r="U8" s="19">
+        <v>21</v>
+      </c>
+      <c r="V8" s="19">
+        <v>22</v>
+      </c>
+      <c r="W8" s="19">
+        <v>23</v>
+      </c>
+    </row>
     <row r="9" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="100" t="s">
+      <c r="A9" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="104" t="s">
+      <c r="F9" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="104" t="s">
+      <c r="H9" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="124" t="s">
+      <c r="I9" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="108" t="s">
+      <c r="J9" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="104" t="s">
+      <c r="K9" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="99" t="s">
+      <c r="L9" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="104" t="s">
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="111" t="s">
+      <c r="P9" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="111" t="s">
+      <c r="Q9" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="100" t="s">
+      <c r="R9" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="S9" s="117" t="s">
+      <c r="S9" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="T9" s="104" t="s">
+      <c r="T9" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="U9" s="119" t="s">
+      <c r="U9" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="V9" s="122" t="s">
+      <c r="V9" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="W9" s="113" t="s">
+      <c r="W9" s="121" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="100"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="106"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="112"/>
       <c r="L10" s="23" t="s">
         <v>30</v>
       </c>
@@ -4934,22 +5048,22 @@
       <c r="N10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="106"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="119"/>
-      <c r="V10" s="123"/>
-      <c r="W10" s="113"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="109"/>
+      <c r="W10" s="121"/>
     </row>
     <row r="11" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -5029,12 +5143,12 @@
       <c r="H12" s="28"/>
       <c r="I12" s="30"/>
       <c r="J12" s="31" t="e">
-        <f>ROUND((#REF!/F12*H12)+I12,0)</f>
-        <v>#REF!</v>
+        <f>ROUND((G12/F12*H12)+I12,0)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="K12" s="90" t="e">
         <f>+J12-#REF!-#REF!</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L12" s="31">
         <v>0</v>
@@ -5046,31 +5160,30 @@
         <f>4400000*M12</f>
         <v>0</v>
       </c>
-      <c r="O12" s="32" t="e">
-        <f>+IF(K12-L12-N12-#REF!&gt;0,K12-L12-N12-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P12" s="33" t="e">
+      <c r="O12" s="32">
+        <v>0</v>
+      </c>
+      <c r="P12" s="33">
         <f>ROUND(IF(O12&gt;80000000,O12*35%-9850000,IF(O12&gt;52000000,O12*30%-5850000,IF(O12&gt;32000000,O12*25%-3250000,IF(O12&gt;18000000,O12*20%-1650000,IF(O12&gt;10000000,O12*15%-750000,IF(O12&gt;5000000,O12*10%-250000,IF(O12&gt;0,O12*5%,0))))))),0)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="33"/>
       <c r="R12" s="29" t="e">
-        <f>ROUND(J12-#REF!-P12-#REF! - Q12,0)</f>
-        <v>#REF!</v>
+        <f>ROUND(J12-P12-Q12,0)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="S12" s="29" t="e">
-        <f>R12</f>
-        <v>#REF!</v>
+        <f>Tổng!AI12 - 'Lương cơ bản'!Z12</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="T12" s="34" t="e">
-        <f>IF(AND(R12&gt;S12,S12&gt;0),R12-S12,0)</f>
-        <v>#REF!</v>
+        <f>IF(R12&gt;S12,R12-S12,0)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="U12" s="29"/>
-      <c r="V12" s="34" t="e">
+      <c r="V12" s="34">
         <f>+IF(P12&gt;0,1,0)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="W12" s="61"/>
     </row>
@@ -5081,18 +5194,18 @@
       <c r="D13" s="66"/>
       <c r="E13" s="67"/>
       <c r="F13" s="68"/>
-      <c r="G13" s="29"/>
+      <c r="G13" s="69"/>
       <c r="H13" s="68"/>
       <c r="I13" s="70"/>
-      <c r="J13" s="31" t="e">
-        <f>ROUND((#REF!/F13*H13)+I13,0)</f>
-        <v>#REF!</v>
+      <c r="J13" s="71" t="e">
+        <f>ROUND((G13/F13*H13)+I13,0)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="K13" s="69" t="e">
         <f>+J13-#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L13" s="31">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="71">
         <v>0</v>
       </c>
       <c r="M13" s="71">
@@ -5102,57 +5215,59 @@
         <f>4400000*M13</f>
         <v>0</v>
       </c>
-      <c r="O13" s="32" t="e">
-        <f>+IF(K13-L13-N13-#REF!&gt;0,K13-L13-N13-#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P13" s="73" t="e">
+      <c r="O13" s="104">
+        <v>0</v>
+      </c>
+      <c r="P13" s="73">
         <f>ROUND(IF(O13&gt;80000000,O13*35%-9850000,IF(O13&gt;52000000,O13*30%-5850000,IF(O13&gt;32000000,O13*25%-3250000,IF(O13&gt;18000000,O13*20%-1650000,IF(O13&gt;10000000,O13*15%-750000,IF(O13&gt;5000000,O13*10%-250000,IF(O13&gt;0,O13*5%,0))))))),0)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="73"/>
-      <c r="R13" s="29" t="e">
-        <f>ROUND(J13-#REF!-P13-#REF! - Q13,0)</f>
-        <v>#REF!</v>
+      <c r="R13" s="69" t="e">
+        <f>ROUND(J13-P13-Q13,0)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="S13" s="69" t="e">
-        <f>R13</f>
-        <v>#REF!</v>
+        <f>Tổng!AI13 - 'Lương cơ bản'!Z13</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="T13" s="74" t="e">
-        <f>IF(AND(R13&gt;S13,S13&gt;0),R13-S13,0)</f>
-        <v>#REF!</v>
+        <f>IF(R13&gt;S13,R13-S13,0)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="U13" s="69"/>
-      <c r="V13" s="74" t="e">
+      <c r="V13" s="74">
         <f>+IF(P13&gt;0,1,0)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="W13" s="75"/>
     </row>
-    <row r="14" spans="1:23" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
-      <c r="W14" s="28"/>
-    </row>
-    <row r="15" spans="1:23" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="93"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="103"/>
+    </row>
+    <row r="15" spans="1:23" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="86"/>
       <c r="C15" s="87"/>
@@ -5173,11 +5288,11 @@
       </c>
       <c r="J15" s="39" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K15" s="39" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L15" s="39">
         <f t="shared" si="1"/>
@@ -5191,13 +5306,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O15" s="39" t="e">
+      <c r="O15" s="39">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P15" s="39" t="e">
+        <v>0</v>
+      </c>
+      <c r="P15" s="39">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="39">
         <f t="shared" si="1"/>
@@ -5205,23 +5320,23 @@
       </c>
       <c r="R15" s="39" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S15" s="39" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T15" s="39" t="e">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U15" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V15" s="39" t="e">
+      <c r="V15" s="39">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="W15" s="88"/>
     </row>
@@ -5254,59 +5369,72 @@
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
       <c r="K17" s="63"/>
       <c r="L17" s="63"/>
       <c r="M17" s="63"/>
       <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
+      <c r="P17" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="138"/>
       <c r="S17" s="63"/>
       <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
+      <c r="U17" s="63" t="s">
+        <v>52</v>
+      </c>
       <c r="V17" s="63"/>
     </row>
     <row r="18" spans="1:23" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="93" t="s">
+      <c r="D18" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="94"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="50"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="92" t="s">
+      <c r="E18" s="106"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="I18" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="P18" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="S18" s="92"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="92"/>
-      <c r="W18" s="52"/>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="139"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
     </row>
     <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="53" t="s">
+      <c r="D19" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="53"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="54" t="s">
+      <c r="E19" s="129"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="I19" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="3"/>
+      <c r="P19" s="129" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="129"/>
+      <c r="R19" s="129"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
     </row>
     <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="53"/>
@@ -5421,23 +5549,13 @@
       <c r="J29" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H19:J19"/>
+  <mergeCells count="31">
+    <mergeCell ref="D5:O5"/>
+    <mergeCell ref="D6:O6"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="H18:J18"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
@@ -5448,7 +5566,23 @@
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/it_api/wwwroot/report/excel/LuongBaohiem.xlsx
+++ b/it_api/wwwroot/report/excel/LuongBaohiem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C513F67-6D1D-4C97-8331-C47F7AF24E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136E8703-7D45-4C9F-8EC9-5B835E83C054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
   <si>
     <t>STT</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>BẢNG LƯƠNG CƠ BẢN</t>
+  </si>
+  <si>
+    <t>Phường Hòa Hiệp, Tỉnh Phú Yên, Việt Nam</t>
+  </si>
+  <si>
+    <t>Hòa Hiệp, ngày 30 tháng 11 năm 2024</t>
   </si>
 </sst>
 </file>
@@ -851,6 +857,81 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,98 +944,23 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -2440,7 +2446,7 @@
       <pane xSplit="3" ySplit="10" topLeftCell="P11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AI21" sqref="AI21"/>
+      <selection pane="bottomRight" activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,7 +2505,7 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1"/>
       <c r="AC3" s="7"/>
@@ -2541,17 +2547,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="130" t="s">
+      <c r="P5" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="130"/>
-      <c r="U5" s="130"/>
-      <c r="V5" s="130"/>
-      <c r="W5" s="130"/>
-      <c r="X5" s="130"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -2580,17 +2586,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="131" t="s">
+      <c r="P6" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131"/>
-      <c r="T6" s="131"/>
-      <c r="U6" s="131"/>
-      <c r="V6" s="131"/>
-      <c r="W6" s="131"/>
-      <c r="X6" s="131"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108"/>
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -2613,8 +2619,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2644,110 +2650,110 @@
     </row>
     <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="125" t="s">
+      <c r="A9" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="110" t="s">
+      <c r="D9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="110" t="s">
+      <c r="E9" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="110" t="s">
+      <c r="F9" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="136" t="s">
+      <c r="G9" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="115" t="s">
+      <c r="H9" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="110" t="s">
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="137" t="s">
+      <c r="R9" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="110" t="s">
+      <c r="S9" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="113" t="s">
+      <c r="T9" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="137" t="s">
+      <c r="U9" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="136" t="s">
+      <c r="V9" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="122" t="s">
+      <c r="W9" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="123"/>
-      <c r="Y9" s="110" t="s">
+      <c r="X9" s="126"/>
+      <c r="Y9" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="115" t="s">
+      <c r="Z9" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="115"/>
-      <c r="AB9" s="115"/>
-      <c r="AC9" s="116" t="s">
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="110" t="s">
+      <c r="AD9" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="119" t="s">
+      <c r="AE9" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="119" t="s">
+      <c r="AF9" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="119" t="s">
+      <c r="AG9" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="125" t="s">
+      <c r="AH9" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="126" t="s">
+      <c r="AI9" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="110" t="s">
+      <c r="AJ9" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="128" t="s">
+      <c r="AK9" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="108" t="s">
+      <c r="AL9" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="121" t="s">
+      <c r="AM9" s="124" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="125"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="110"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="115"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -2775,19 +2781,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="137"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="137"/>
-      <c r="V10" s="110"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="136"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="115"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="112"/>
+      <c r="Y10" s="117"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -2797,24 +2803,24 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="116"/>
-      <c r="AD10" s="112"/>
-      <c r="AE10" s="120"/>
-      <c r="AF10" s="124"/>
-      <c r="AG10" s="120"/>
-      <c r="AH10" s="112"/>
-      <c r="AI10" s="127"/>
-      <c r="AJ10" s="111"/>
-      <c r="AK10" s="128"/>
-      <c r="AL10" s="109"/>
-      <c r="AM10" s="121"/>
+      <c r="AC10" s="137"/>
+      <c r="AD10" s="117"/>
+      <c r="AE10" s="123"/>
+      <c r="AF10" s="127"/>
+      <c r="AG10" s="123"/>
+      <c r="AH10" s="117"/>
+      <c r="AI10" s="129"/>
+      <c r="AJ10" s="116"/>
+      <c r="AK10" s="130"/>
+      <c r="AL10" s="134"/>
+      <c r="AM10" s="124"/>
     </row>
     <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -3372,7 +3378,7 @@
       <c r="AD17" s="63"/>
       <c r="AE17" s="63"/>
       <c r="AF17" s="63" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AG17" s="63"/>
       <c r="AH17" s="63"/>
@@ -3383,24 +3389,24 @@
     </row>
     <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="106" t="s">
+      <c r="F18" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="106"/>
+      <c r="G18" s="131"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="R18" s="107" t="s">
+      <c r="R18" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="W18" s="107" t="s">
+      <c r="S18" s="132"/>
+      <c r="T18" s="132"/>
+      <c r="U18" s="132"/>
+      <c r="W18" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
+      <c r="X18" s="132"/>
+      <c r="Y18" s="132"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
       <c r="AE18" s="51"/>
@@ -3415,24 +3421,24 @@
       <c r="AM18" s="52"/>
     </row>
     <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="129" t="s">
+      <c r="F19" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="129"/>
+      <c r="G19" s="106"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="R19" s="129" t="s">
+      <c r="R19" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="129"/>
-      <c r="T19" s="129"/>
-      <c r="U19" s="129"/>
-      <c r="W19" s="129" t="s">
+      <c r="S19" s="106"/>
+      <c r="T19" s="106"/>
+      <c r="U19" s="106"/>
+      <c r="W19" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="129"/>
-      <c r="Y19" s="129"/>
+      <c r="X19" s="106"/>
+      <c r="Y19" s="106"/>
       <c r="AC19" s="44"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
@@ -3654,6 +3660,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AK9:AK10"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="P5:X5"/>
     <mergeCell ref="P6:X6"/>
@@ -3670,28 +3698,6 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="W19:Y19"/>
     <mergeCell ref="U9:U10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="AC9:AC10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
@@ -3713,7 +3719,7 @@
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="V7" sqref="V7"/>
+      <selection pane="bottomRight" activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3802,14 +3808,14 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="130" t="s">
+      <c r="P5" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="130"/>
-      <c r="U5" s="130"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
@@ -3832,14 +3838,14 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="131" t="s">
+      <c r="P6" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131"/>
-      <c r="T6" s="131"/>
-      <c r="U6" s="131"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108"/>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
@@ -3856,8 +3862,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -3964,89 +3970,89 @@
       </c>
     </row>
     <row r="9" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="125" t="s">
+      <c r="A9" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="110" t="s">
+      <c r="D9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="110" t="s">
+      <c r="E9" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="110" t="s">
+      <c r="F9" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="136" t="s">
+      <c r="G9" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="115" t="s">
+      <c r="H9" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="137" t="s">
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="R9" s="110" t="s">
+      <c r="R9" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="113" t="s">
+      <c r="S9" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="T9" s="137" t="s">
+      <c r="T9" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="U9" s="136" t="s">
+      <c r="U9" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="V9" s="116" t="s">
+      <c r="V9" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="W9" s="119" t="s">
+      <c r="W9" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="X9" s="119" t="s">
+      <c r="X9" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="Y9" s="125" t="s">
+      <c r="Y9" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="Z9" s="126" t="s">
+      <c r="Z9" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="AA9" s="110" t="s">
+      <c r="AA9" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="AB9" s="128" t="s">
+      <c r="AB9" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="AC9" s="108" t="s">
+      <c r="AC9" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="AD9" s="121" t="s">
+      <c r="AD9" s="124" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="125"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="110"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="115"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -4074,27 +4080,27 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="137"/>
-      <c r="U10" s="110"/>
-      <c r="V10" s="116"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="127"/>
-      <c r="AA10" s="111"/>
-      <c r="AB10" s="128"/>
-      <c r="AC10" s="109"/>
-      <c r="AD10" s="121"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="136"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="123"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="129"/>
+      <c r="AA10" s="116"/>
+      <c r="AB10" s="130"/>
+      <c r="AC10" s="134"/>
+      <c r="AD10" s="124"/>
     </row>
     <row r="11" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -4497,7 +4503,7 @@
       <c r="U17" s="63"/>
       <c r="V17" s="63"/>
       <c r="W17" s="63" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="X17" s="63"/>
       <c r="Y17" s="63"/>
@@ -4508,19 +4514,19 @@
     </row>
     <row r="18" spans="1:30" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="106" t="s">
+      <c r="F18" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="106"/>
+      <c r="G18" s="131"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="Q18" s="107" t="s">
+      <c r="Q18" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="132"/>
+      <c r="T18" s="132"/>
       <c r="W18" s="51"/>
       <c r="X18" s="51"/>
       <c r="Y18" s="92" t="s">
@@ -4532,19 +4538,19 @@
       <c r="AD18" s="52"/>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="129" t="s">
+      <c r="F19" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="129"/>
+      <c r="G19" s="106"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="Q19" s="129" t="s">
+      <c r="Q19" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="R19" s="129"/>
-      <c r="S19" s="129"/>
-      <c r="T19" s="129"/>
+      <c r="R19" s="106"/>
+      <c r="S19" s="106"/>
+      <c r="T19" s="106"/>
       <c r="V19" s="44"/>
       <c r="W19" s="42"/>
       <c r="X19" s="42"/>
@@ -4722,6 +4728,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="V9:V10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="Q18:T18"/>
@@ -4734,24 +4758,6 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4768,7 +4774,7 @@
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="Q22" sqref="Q22"/>
+      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4826,20 +4832,20 @@
     </row>
     <row r="5" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -4849,18 +4855,18 @@
     </row>
     <row r="6" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="140"/>
-      <c r="O6" s="140"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="138"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
@@ -4961,84 +4967,84 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="125" t="s">
+      <c r="A9" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="110" t="s">
+      <c r="D9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="110" t="s">
+      <c r="E9" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="110" t="s">
+      <c r="F9" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="110" t="s">
+      <c r="H9" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="113" t="s">
+      <c r="I9" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="137" t="s">
+      <c r="J9" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="110" t="s">
+      <c r="K9" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="115" t="s">
+      <c r="L9" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="110" t="s">
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="119" t="s">
+      <c r="P9" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="119" t="s">
+      <c r="Q9" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="125" t="s">
+      <c r="R9" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="S9" s="126" t="s">
+      <c r="S9" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="T9" s="110" t="s">
+      <c r="T9" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="U9" s="128" t="s">
+      <c r="U9" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="V9" s="108" t="s">
+      <c r="V9" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="W9" s="121" t="s">
+      <c r="W9" s="124" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="125"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="112"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="117"/>
       <c r="L10" s="23" t="s">
         <v>30</v>
       </c>
@@ -5048,22 +5054,22 @@
       <c r="N10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="112"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="109"/>
-      <c r="W10" s="121"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="134"/>
+      <c r="W10" s="124"/>
     </row>
     <row r="11" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -5379,11 +5385,11 @@
       <c r="L17" s="63"/>
       <c r="M17" s="63"/>
       <c r="N17" s="63"/>
-      <c r="P17" s="138" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q17" s="138"/>
-      <c r="R17" s="138"/>
+      <c r="P17" s="139" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="139"/>
+      <c r="R17" s="139"/>
       <c r="S17" s="63"/>
       <c r="T17" s="63"/>
       <c r="U17" s="63" t="s">
@@ -5393,45 +5399,45 @@
     </row>
     <row r="18" spans="1:23" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="D18" s="106" t="s">
+      <c r="D18" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="106"/>
+      <c r="E18" s="131"/>
       <c r="F18" s="47"/>
       <c r="G18" s="47"/>
-      <c r="I18" s="107" t="s">
+      <c r="I18" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="P18" s="139" t="s">
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="P18" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="139"/>
-      <c r="R18" s="139"/>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="140"/>
       <c r="U18" s="51"/>
       <c r="V18" s="51"/>
     </row>
     <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="129" t="s">
+      <c r="D19" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="129"/>
+      <c r="E19" s="106"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="I19" s="129" t="s">
+      <c r="I19" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="129"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
       <c r="M19" s="3"/>
-      <c r="P19" s="129" t="s">
+      <c r="P19" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="129"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
       <c r="T19" s="44"/>
       <c r="U19" s="42"/>
       <c r="V19" s="42"/>
@@ -5550,17 +5556,18 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D5:O5"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:N9"/>
     <mergeCell ref="O9:O10"/>
@@ -5571,14 +5578,13 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D5:O5"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="T9:T10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="F9:F10"/>
   </mergeCells>
